--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ren1-Atp6ap2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ren1-Atp6ap2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Ren1</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7862533333333332</v>
+        <v>1.307223</v>
       </c>
       <c r="H2">
-        <v>2.35876</v>
+        <v>3.921669</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8940139324750501</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.89401393247505</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.435281</v>
+        <v>8.382792333333333</v>
       </c>
       <c r="N2">
-        <v>91.305843</v>
+        <v>25.148377</v>
       </c>
       <c r="O2">
-        <v>0.2541775371878583</v>
+        <v>0.0868480383930262</v>
       </c>
       <c r="P2">
-        <v>0.2541775371878583</v>
+        <v>0.08684803839302623</v>
       </c>
       <c r="Q2">
-        <v>23.92984113718666</v>
+        <v>10.958178942357</v>
       </c>
       <c r="R2">
-        <v>215.36857023468</v>
+        <v>98.62361048121301</v>
       </c>
       <c r="S2">
-        <v>0.2541775371878583</v>
+        <v>0.07764335633149348</v>
       </c>
       <c r="T2">
-        <v>0.2541775371878583</v>
+        <v>0.0776433563314935</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7862533333333332</v>
+        <v>1.307223</v>
       </c>
       <c r="H3">
-        <v>2.35876</v>
+        <v>3.921669</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8940139324750501</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.89401393247505</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>60.614152</v>
       </c>
       <c r="O3">
-        <v>0.168737896369792</v>
+        <v>0.2093264388416289</v>
       </c>
       <c r="P3">
-        <v>0.168737896369792</v>
+        <v>0.2093264388416289</v>
       </c>
       <c r="Q3">
-        <v>15.88602635239111</v>
+        <v>26.412071206632</v>
       </c>
       <c r="R3">
-        <v>142.97423717152</v>
+        <v>237.708640859688</v>
       </c>
       <c r="S3">
-        <v>0.168737896369792</v>
+        <v>0.1871407527598027</v>
       </c>
       <c r="T3">
-        <v>0.168737896369792</v>
+        <v>0.1871407527598027</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7862533333333332</v>
+        <v>1.307223</v>
       </c>
       <c r="H4">
-        <v>2.35876</v>
+        <v>3.921669</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.8940139324750501</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.89401393247505</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.29786566666667</v>
+        <v>16.00744233333333</v>
       </c>
       <c r="N4">
-        <v>39.893597</v>
+        <v>48.022327</v>
       </c>
       <c r="O4">
-        <v>0.1110559401442133</v>
+        <v>0.1658415133119111</v>
       </c>
       <c r="P4">
-        <v>0.1110559401442133</v>
+        <v>0.1658415133119112</v>
       </c>
       <c r="Q4">
-        <v>10.45549120663556</v>
+        <v>20.925296789307</v>
       </c>
       <c r="R4">
-        <v>94.09942085971998</v>
+        <v>188.327671103763</v>
       </c>
       <c r="S4">
-        <v>0.1110559401442133</v>
+        <v>0.148264623483595</v>
       </c>
       <c r="T4">
-        <v>0.1110559401442133</v>
+        <v>0.148264623483595</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,309 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.307223</v>
+      </c>
+      <c r="H5">
+        <v>3.921669</v>
+      </c>
+      <c r="I5">
+        <v>0.8940139324750501</v>
+      </c>
+      <c r="J5">
+        <v>0.89401393247505</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>51.92757733333334</v>
+      </c>
+      <c r="N5">
+        <v>155.782732</v>
+      </c>
+      <c r="O5">
+        <v>0.5379840094534337</v>
+      </c>
+      <c r="P5">
+        <v>0.5379840094534337</v>
+      </c>
+      <c r="Q5">
+        <v>67.880923424412</v>
+      </c>
+      <c r="R5">
+        <v>610.928310819708</v>
+      </c>
+      <c r="S5">
+        <v>0.4809651999001588</v>
+      </c>
+      <c r="T5">
+        <v>0.4809651999001587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.7862533333333332</v>
-      </c>
-      <c r="H5">
-        <v>2.35876</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>55.80238266666667</v>
-      </c>
-      <c r="N5">
-        <v>167.407148</v>
-      </c>
-      <c r="O5">
-        <v>0.4660286262981363</v>
-      </c>
-      <c r="P5">
-        <v>0.4660286262981364</v>
-      </c>
-      <c r="Q5">
-        <v>43.87480937960888</v>
-      </c>
-      <c r="R5">
-        <v>394.87328441648</v>
-      </c>
-      <c r="S5">
-        <v>0.4660286262981363</v>
-      </c>
-      <c r="T5">
-        <v>0.4660286262981364</v>
+      <c r="G6">
+        <v>0.1549723333333334</v>
+      </c>
+      <c r="H6">
+        <v>0.464917</v>
+      </c>
+      <c r="I6">
+        <v>0.1059860675249499</v>
+      </c>
+      <c r="J6">
+        <v>0.1059860675249499</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>8.382792333333333</v>
+      </c>
+      <c r="N6">
+        <v>25.148377</v>
+      </c>
+      <c r="O6">
+        <v>0.0868480383930262</v>
+      </c>
+      <c r="P6">
+        <v>0.08684803839302623</v>
+      </c>
+      <c r="Q6">
+        <v>1.299100887745444</v>
+      </c>
+      <c r="R6">
+        <v>11.691907989709</v>
+      </c>
+      <c r="S6">
+        <v>0.00920468206153272</v>
+      </c>
+      <c r="T6">
+        <v>0.00920468206153272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1549723333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.464917</v>
+      </c>
+      <c r="I7">
+        <v>0.1059860675249499</v>
+      </c>
+      <c r="J7">
+        <v>0.1059860675249499</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>20.20471733333333</v>
+      </c>
+      <c r="N7">
+        <v>60.614152</v>
+      </c>
+      <c r="O7">
+        <v>0.2093264388416289</v>
+      </c>
+      <c r="P7">
+        <v>0.2093264388416289</v>
+      </c>
+      <c r="Q7">
+        <v>3.131172189487112</v>
+      </c>
+      <c r="R7">
+        <v>28.180549705384</v>
+      </c>
+      <c r="S7">
+        <v>0.02218568608182618</v>
+      </c>
+      <c r="T7">
+        <v>0.02218568608182618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1549723333333334</v>
+      </c>
+      <c r="H8">
+        <v>0.464917</v>
+      </c>
+      <c r="I8">
+        <v>0.1059860675249499</v>
+      </c>
+      <c r="J8">
+        <v>0.1059860675249499</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>16.00744233333333</v>
+      </c>
+      <c r="N8">
+        <v>48.022327</v>
+      </c>
+      <c r="O8">
+        <v>0.1658415133119111</v>
+      </c>
+      <c r="P8">
+        <v>0.1658415133119112</v>
+      </c>
+      <c r="Q8">
+        <v>2.480710689095445</v>
+      </c>
+      <c r="R8">
+        <v>22.326396201859</v>
+      </c>
+      <c r="S8">
+        <v>0.01757688982831609</v>
+      </c>
+      <c r="T8">
+        <v>0.0175768898283161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1549723333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.464917</v>
+      </c>
+      <c r="I9">
+        <v>0.1059860675249499</v>
+      </c>
+      <c r="J9">
+        <v>0.1059860675249499</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>51.92757733333334</v>
+      </c>
+      <c r="N9">
+        <v>155.782732</v>
+      </c>
+      <c r="O9">
+        <v>0.5379840094534337</v>
+      </c>
+      <c r="P9">
+        <v>0.5379840094534337</v>
+      </c>
+      <c r="Q9">
+        <v>8.047337823693779</v>
+      </c>
+      <c r="R9">
+        <v>72.42604041324401</v>
+      </c>
+      <c r="S9">
+        <v>0.05701880955327494</v>
+      </c>
+      <c r="T9">
+        <v>0.05701880955327492</v>
       </c>
     </row>
   </sheetData>
